--- a/outData/TROW.xlsx
+++ b/outData/TROW.xlsx
@@ -426,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -448,211 +448,169 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="B2">
-        <v>1.677148846960168</v>
+        <v>3.437891509544079</v>
       </c>
       <c r="C2">
-        <v>1.553760820627074</v>
+        <v>3.213393614455019</v>
       </c>
       <c r="D2">
-        <v>0.9936797481182359</v>
+        <v>2.347695492144519</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="B3">
-        <v>2.5977739990725</v>
+        <v>3.997741087406944</v>
       </c>
       <c r="C3">
-        <v>2.375946823311176</v>
+        <v>4.301854826708589</v>
       </c>
       <c r="D3">
-        <v>1.077832740763642</v>
+        <v>1.5137003811915</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="B4">
-        <v>3.052844372848163</v>
+        <v>4.709126421814561</v>
       </c>
       <c r="C4">
-        <v>3.419643703212357</v>
+        <v>4.663551759794722</v>
       </c>
       <c r="D4">
-        <v>1.255172304873811</v>
+        <v>1.769752211711539</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B5">
-        <v>3.437891509544079</v>
+        <v>4.882839792549178</v>
       </c>
       <c r="C5">
-        <v>3.213393614455019</v>
+        <v>5.506469862537879</v>
       </c>
       <c r="D5">
-        <v>2.347695492144519</v>
+        <v>4.228068144161553</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B6">
-        <v>3.997741087406944</v>
+        <v>4.963559709784954</v>
       </c>
       <c r="C6">
-        <v>4.301854826708589</v>
+        <v>0.09069220210471272</v>
       </c>
       <c r="D6">
-        <v>1.5137003811915</v>
+        <v>2.209294725145434</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B7">
-        <v>4.709126421814561</v>
+        <v>6.110700866138199</v>
       </c>
       <c r="C7">
-        <v>4.663551759794722</v>
+        <v>0.1770626369277593</v>
       </c>
       <c r="D7">
-        <v>1.769752211711539</v>
+        <v>2.297326517373761</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B8">
-        <v>4.882839792549178</v>
+        <v>7.718350562231958</v>
       </c>
       <c r="C8">
-        <v>5.506469862537879</v>
+        <v>6.096551840012769</v>
       </c>
       <c r="D8">
-        <v>4.228068144161553</v>
+        <v>2.916381385228652</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B9">
-        <v>4.963559709784954</v>
+        <v>9.061110308059895</v>
       </c>
       <c r="C9">
-        <v>0.09069220210471272</v>
+        <v>5.603833105172312</v>
       </c>
       <c r="D9">
-        <v>2.209294725145434</v>
+        <v>3.120137406787011</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="B10">
-        <v>6.110700866138199</v>
+        <v>10.46625496250551</v>
       </c>
       <c r="C10">
-        <v>0.1770626369277593</v>
+        <v>7.517865019850022</v>
       </c>
       <c r="D10">
-        <v>2.297326517373761</v>
+        <v>3.730921923246581</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="B11">
-        <v>7.718350562231958</v>
+        <v>13.71396797153025</v>
       </c>
       <c r="C11">
-        <v>6.096551840012769</v>
+        <v>14.29225978647687</v>
       </c>
       <c r="D11">
-        <v>2.916381385228652</v>
+        <v>7.570729537366548</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="B12">
-        <v>9.061110308059895</v>
+        <v>6.958016971862438</v>
       </c>
       <c r="C12">
-        <v>5.603833105172312</v>
+        <v>9.476552032157214</v>
       </c>
       <c r="D12">
-        <v>3.120137406787011</v>
+        <v>4.945958016971862</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="B13">
-        <v>10.46625496250551</v>
+        <v>8.003131991051454</v>
       </c>
       <c r="C13">
-        <v>7.517865019850022</v>
+        <v>4.076957494407159</v>
       </c>
       <c r="D13">
-        <v>3.730921923246581</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1">
-        <v>2021</v>
-      </c>
-      <c r="B14">
-        <v>13.71396797153025</v>
-      </c>
-      <c r="C14">
-        <v>14.29225978647687</v>
-      </c>
-      <c r="D14">
-        <v>7.570729537366548</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1">
-        <v>2022</v>
-      </c>
-      <c r="B15">
-        <v>6.958016971862438</v>
-      </c>
-      <c r="C15">
-        <v>9.476552032157214</v>
-      </c>
-      <c r="D15">
-        <v>4.945958016971862</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1">
-        <v>2023</v>
-      </c>
-      <c r="B16">
-        <v>8.003131991051454</v>
-      </c>
-      <c r="C16">
-        <v>4.076957494407159</v>
-      </c>
-      <c r="D16">
         <v>5.018791946308725</v>
       </c>
     </row>
